--- a/data/trans_dic/P14B24_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P14B24_2016_2023-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002073785707446601</v>
+        <v>0.002077215122533498</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00484182902451091</v>
+        <v>0.004990799080443264</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03115788401441421</v>
+        <v>0.03232206502433609</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00227674686234125</v>
+        <v>0.002318190708415561</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01998497974348894</v>
+        <v>0.02041811742056611</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01966219153137983</v>
+        <v>0.01983084079894468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02897342262466787</v>
+        <v>0.02900353695942161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01620235882358608</v>
+        <v>0.01871988362668863</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06661196733654391</v>
+        <v>0.06824634599471785</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0132099451621271</v>
+        <v>0.01305807792241072</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04108888487244054</v>
+        <v>0.0402475682946535</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.02021333602031024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05264673763622373</v>
+        <v>0.05264673763622375</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01545956257212406</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002811054297302223</v>
+        <v>0.002904587503619349</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0109151773551021</v>
+        <v>0.01119582325689886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007849256493118859</v>
+        <v>0.008190721621128027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03557971771829391</v>
+        <v>0.03692174459509687</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00789570234582081</v>
+        <v>0.008001160151179233</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02632756385472601</v>
+        <v>0.02619880710141667</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02440188036154444</v>
+        <v>0.02801987064098037</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03571761288516712</v>
+        <v>0.03583931742110032</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04350407833135568</v>
+        <v>0.03888704517791523</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07511238063812792</v>
+        <v>0.07728849705273162</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02722298014593567</v>
+        <v>0.0278211109786816</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04849248169461293</v>
+        <v>0.04748687671495652</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.003948149383636435</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03229167991054852</v>
+        <v>0.03229167991054853</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04177459007621832</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01786094357417398</v>
+        <v>0.01840614091727964</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0178972536781795</v>
+        <v>0.01861654855559897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05202276029449233</v>
+        <v>0.0518365310495987</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006591845742601884</v>
+        <v>0.00536386113655701</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03227626227914691</v>
+        <v>0.03210399567975031</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01373696415388119</v>
+        <v>0.0137042040978286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0529685120721879</v>
+        <v>0.05450450883165339</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08977114892655484</v>
+        <v>0.09198134399425623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1163427348167612</v>
+        <v>0.1174175948467032</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02514948707892665</v>
+        <v>0.02444290221081434</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06320988828585899</v>
+        <v>0.06244155888117933</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009073623831544463</v>
+        <v>0.008876167577452158</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02437039385721133</v>
+        <v>0.02450274220352898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02384561535872823</v>
+        <v>0.02386351758422022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0496546343308281</v>
+        <v>0.04992255664000258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01704912247934488</v>
+        <v>0.01689954530353075</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03811364779463136</v>
+        <v>0.03841290630947517</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02386146183305758</v>
+        <v>0.02397351704633251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0471565606875331</v>
+        <v>0.04674678001288785</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04941950286820933</v>
+        <v>0.05053433124656091</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07875155147823948</v>
+        <v>0.07701855324938767</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03095671328887122</v>
+        <v>0.03047924391648861</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0560193139388295</v>
+        <v>0.05644478296253683</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.06246522202838589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06942957246878735</v>
+        <v>0.06942957246878736</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0413872730627698</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008475167140151672</v>
+        <v>0.007936497197130916</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01837073445264397</v>
+        <v>0.01582796308097875</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04451295751908774</v>
+        <v>0.04553537392159347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05551222832220112</v>
+        <v>0.05714001206943968</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03161207693622982</v>
+        <v>0.03126292473180101</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04420136200566999</v>
+        <v>0.04356349959188911</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0276649809508234</v>
+        <v>0.02838779411931634</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04963352401139824</v>
+        <v>0.04371291280549185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08182770429856827</v>
+        <v>0.08295630487374472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08485592990198849</v>
+        <v>0.08439090428816313</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05475580164497374</v>
+        <v>0.05395931334516395</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06343861583075891</v>
+        <v>0.06296204221349901</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.05114814703501216</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06088706920273536</v>
+        <v>0.06088706920273534</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.04111613213514619</v>
@@ -1048,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.008678176671159303</v>
+        <v>0.008090217506210425</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03937776829457536</v>
+        <v>0.03866469506383596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0467807614123583</v>
+        <v>0.04716535417221229</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03149444529240981</v>
+        <v>0.03103767574374348</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04219820343568392</v>
+        <v>0.04101126570455034</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01681781793591863</v>
+        <v>0.01408821079189278</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08371016476708272</v>
+        <v>0.07986762100206006</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06621277012105141</v>
+        <v>0.06823979049447426</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07807979736792114</v>
+        <v>0.0794895905177329</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05295978414462287</v>
+        <v>0.05317764837460885</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06899398298642104</v>
+        <v>0.06942164752243994</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.0109663942929821</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0274433400781114</v>
+        <v>0.02744334007811139</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.04154128318604618</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007773324182589301</v>
+        <v>0.007986159712646974</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02247584531578048</v>
+        <v>0.02211616808491627</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03470000139815769</v>
+        <v>0.03451799011702678</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05489490870479834</v>
+        <v>0.05507005921300753</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02302655886222258</v>
+        <v>0.02298081462581959</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04024511356675001</v>
+        <v>0.04064763615810824</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01494139389585309</v>
+        <v>0.01525706593138139</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03406946839865337</v>
+        <v>0.03418215956115711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04869386942764116</v>
+        <v>0.04833121592058614</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06756914206336953</v>
+        <v>0.06904034468351618</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03099129941466339</v>
+        <v>0.03129859005586525</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05008824771536461</v>
+        <v>0.04987785703937193</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2650</v>
+        <v>2732</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15218</v>
+        <v>15786</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1767</v>
+        <v>1799</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20700</v>
+        <v>21149</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8437</v>
+        <v>8509</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15860</v>
+        <v>15876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5623</v>
+        <v>6497</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32534</v>
+        <v>33332</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10253</v>
+        <v>10135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42560</v>
+        <v>41688</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1060</v>
+        <v>1096</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5274</v>
+        <v>5410</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2922</v>
+        <v>3049</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15032</v>
+        <v>15599</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5918</v>
+        <v>5997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23845</v>
+        <v>23728</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9205</v>
+        <v>10570</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17259</v>
+        <v>17318</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16195</v>
+        <v>14477</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31734</v>
+        <v>32654</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20404</v>
+        <v>20852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>43920</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="12">
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8408</v>
+        <v>8665</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2973</v>
+        <v>3093</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9754</v>
+        <v>9719</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4529</v>
+        <v>3686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21246</v>
+        <v>21132</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7157</v>
+        <v>7140</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24935</v>
+        <v>25658</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14913</v>
+        <v>15280</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21814</v>
+        <v>22015</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17281</v>
+        <v>16796</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41607</v>
+        <v>41102</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10431</v>
+        <v>10204</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27583</v>
+        <v>27733</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19694</v>
+        <v>19708</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42691</v>
+        <v>42921</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33681</v>
+        <v>33385</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>75907</v>
+        <v>76503</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27432</v>
+        <v>27561</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53374</v>
+        <v>52910</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40814</v>
+        <v>41735</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>67707</v>
+        <v>66217</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>61155</v>
+        <v>60212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>111568</v>
+        <v>112415</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5261</v>
+        <v>4926</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10416</v>
+        <v>8974</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32861</v>
+        <v>33616</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>46082</v>
+        <v>47433</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42959</v>
+        <v>42485</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61754</v>
+        <v>60863</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17172</v>
+        <v>17620</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28141</v>
+        <v>24784</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60409</v>
+        <v>61242</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>70441</v>
+        <v>70055</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74410</v>
+        <v>73328</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>88630</v>
+        <v>87964</v>
       </c>
     </row>
     <row r="24">
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2059</v>
+        <v>1919</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>42608</v>
+        <v>41836</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>39430</v>
+        <v>39754</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>43121</v>
+        <v>42496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>45578</v>
+        <v>44296</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4829</v>
+        <v>4045</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19858</v>
+        <v>18947</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71644</v>
+        <v>73837</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>65811</v>
+        <v>66999</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>72511</v>
+        <v>72809</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>74520</v>
+        <v>74982</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>26311</v>
+        <v>27032</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>77258</v>
+        <v>76022</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>122546</v>
+        <v>121904</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>199332</v>
+        <v>199968</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>159261</v>
+        <v>158945</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>284474</v>
+        <v>287319</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>50574</v>
+        <v>51642</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>117110</v>
+        <v>117497</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>171967</v>
+        <v>170686</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>245354</v>
+        <v>250696</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>214349</v>
+        <v>216474</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>354051</v>
+        <v>352564</v>
       </c>
     </row>
     <row r="32">
